--- a/quidel/tests/test_data/covid_ag_test_data.xlsx
+++ b/quidel/tests/test_data/covid_ag_test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingjingtang/Document/research/Delphi/covidcast-indicators/quidel_covidtest/tests/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingjingtang/Document/research/Delphi/covidcast-indicators/quidel/tests/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6902DA6B-75C5-594F-8E63-CFC933C5C0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7AF1B-15BF-0641-A54A-2890C08680F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="780" windowWidth="35020" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="840" windowWidth="35020" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="32">
   <si>
     <t>SofiaSerNum</t>
   </si>
@@ -70,9 +70,6 @@
     <t>FL</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>McLean</t>
-  </si>
-  <si>
-    <t>Columbia</t>
   </si>
   <si>
     <t>Santa Rosa Beach</t>
@@ -975,10 +969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1022,16 +1016,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -1040,25 +1034,25 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
@@ -1067,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1079,7 +1073,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -1111,7 +1105,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -1143,7 +1137,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1175,7 +1169,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1207,7 +1201,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1239,7 +1233,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1271,7 +1265,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1303,7 +1297,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1335,7 +1329,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1367,7 +1361,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1399,7 +1393,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1431,7 +1425,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -1463,7 +1457,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -1495,7 +1489,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -1527,7 +1521,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1559,7 +1553,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
@@ -1591,7 +1585,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -1623,7 +1617,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1655,10 +1649,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1">
         <v>21229</v>
@@ -1687,10 +1681,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1">
         <v>21229</v>
@@ -1719,10 +1713,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
         <v>21229</v>
@@ -1751,10 +1745,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1">
         <v>21229</v>
@@ -1783,10 +1777,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1">
         <v>21229</v>
@@ -1815,10 +1809,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1">
         <v>21229</v>
@@ -1847,10 +1841,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1">
         <v>21229</v>
@@ -1879,10 +1873,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1">
         <v>21229</v>
@@ -1911,10 +1905,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1">
         <v>21229</v>
@@ -1943,10 +1937,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1">
         <v>21229</v>
@@ -1975,10 +1969,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1">
         <v>21229</v>
@@ -2007,10 +2001,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1">
         <v>21229</v>
@@ -2039,10 +2033,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1">
         <v>21229</v>
@@ -2071,10 +2065,10 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1">
         <v>21229</v>
@@ -2103,10 +2097,10 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1">
         <v>21229</v>
@@ -2135,10 +2129,10 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1">
         <v>21229</v>
@@ -2167,10 +2161,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1">
         <v>21229</v>
@@ -2199,10 +2193,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1">
         <v>21229</v>
@@ -2231,10 +2225,10 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1">
         <v>21229</v>
@@ -2263,10 +2257,10 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1">
         <v>21229</v>
@@ -2295,10 +2289,10 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1">
         <v>21229</v>
@@ -2327,10 +2321,10 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="1">
         <v>21229</v>
@@ -2359,10 +2353,10 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1">
         <v>21229</v>
@@ -2391,10 +2385,10 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1">
         <v>21229</v>
@@ -2423,10 +2417,10 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1">
         <v>21229</v>
@@ -2455,10 +2449,10 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="1">
         <v>21229</v>
@@ -2487,10 +2481,10 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1">
         <v>21229</v>
@@ -2519,10 +2513,10 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1">
         <v>21229</v>
@@ -2551,7 +2545,7 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -2583,7 +2577,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -2615,7 +2609,7 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -2647,7 +2641,7 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -2679,7 +2673,7 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -2711,7 +2705,7 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -2743,7 +2737,7 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -3024,26 +3018,26 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2">
         <v>44034</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" s="1">
-        <v>29229</v>
+        <v>33625</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K63"/>
       <c r="M63" s="1"/>
@@ -3056,20 +3050,20 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64" s="2">
         <v>44034</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1">
-        <v>22079</v>
+        <v>33625</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>10</v>
@@ -3088,26 +3082,26 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" s="2">
         <v>44034</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1">
-        <v>22079</v>
+        <v>33625</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K65"/>
       <c r="M65" s="1"/>
@@ -3120,20 +3114,20 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2">
         <v>44034</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1">
-        <v>22079</v>
+        <v>33625</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
@@ -3152,20 +3146,20 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" s="2">
         <v>44034</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1">
-        <v>22079</v>
+        <v>33625</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
@@ -3184,20 +3178,20 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" s="2">
         <v>44034</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="1">
-        <v>22079</v>
+        <v>33625</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>10</v>
@@ -3216,20 +3210,20 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2">
         <v>44034</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1">
-        <v>22079</v>
+        <v>33625</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>10</v>
@@ -3255,7 +3249,7 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -3280,20 +3274,20 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>10</v>
@@ -3312,20 +3306,20 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>10</v>
@@ -3344,20 +3338,20 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>10</v>
@@ -3376,20 +3370,20 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
@@ -3408,20 +3402,20 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
@@ -3440,26 +3434,26 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K76"/>
       <c r="M76" s="1"/>
@@ -3472,20 +3466,20 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>10</v>
@@ -3504,20 +3498,20 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F78" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>10</v>
@@ -3536,20 +3530,20 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>10</v>
@@ -3568,20 +3562,20 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1">
-        <v>33625</v>
+        <v>22079</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>10</v>
@@ -4237,6 +4231,1702 @@
         <v>44060</v>
       </c>
       <c r="T100" s="4"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>9</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101"/>
+      <c r="M101" s="1"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T101" s="4"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>9</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102"/>
+      <c r="M102" s="1"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>9</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103"/>
+      <c r="M103" s="1"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T103" s="4"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K104"/>
+      <c r="M104" s="1"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T104" s="4"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K105"/>
+      <c r="M105" s="1"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T105" s="4"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>9</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K106"/>
+      <c r="M106" s="1"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T106" s="4"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>9</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K107"/>
+      <c r="M107" s="1"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T107" s="4"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>9</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K108"/>
+      <c r="M108" s="1"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T108" s="4"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>9</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K109"/>
+      <c r="M109" s="1"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>9</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K110"/>
+      <c r="M110" s="1"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111"/>
+      <c r="M111" s="1"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>9</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K112"/>
+      <c r="M112" s="1"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T112" s="4"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>9</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K113"/>
+      <c r="M113" s="1"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T113" s="4"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K114"/>
+      <c r="M114" s="1"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T114" s="4"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>9</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K115"/>
+      <c r="M115" s="1"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T115" s="4"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>9</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K116"/>
+      <c r="M116" s="1"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T116" s="4"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>9</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K117"/>
+      <c r="M117" s="1"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T117" s="4"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>9</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118"/>
+      <c r="M118" s="1"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T118" s="4"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>9</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119"/>
+      <c r="M119" s="1"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T119" s="4"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K120"/>
+      <c r="M120" s="1"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T120" s="4"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>9</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121"/>
+      <c r="M121" s="1"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T121" s="4"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>9</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K122"/>
+      <c r="M122" s="1"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T122" s="4"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>9</v>
+      </c>
+      <c r="B123" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K123"/>
+      <c r="M123" s="1"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>9</v>
+      </c>
+      <c r="B124" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124"/>
+      <c r="M124" s="1"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>9</v>
+      </c>
+      <c r="B125" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K125"/>
+      <c r="M125" s="1"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>9</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K126"/>
+      <c r="M126" s="1"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>9</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K127"/>
+      <c r="M127" s="1"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>9</v>
+      </c>
+      <c r="B128" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128"/>
+      <c r="M128" s="1"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>9</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129"/>
+      <c r="M129" s="1"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>9</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130"/>
+      <c r="M130" s="1"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131"/>
+      <c r="M131" s="1"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>9</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132"/>
+      <c r="M132" s="1"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T132" s="4"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>9</v>
+      </c>
+      <c r="B133" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K133"/>
+      <c r="M133" s="1"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T133" s="4"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K134"/>
+      <c r="M134" s="1"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K135"/>
+      <c r="M135" s="1"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K136"/>
+      <c r="M136" s="1"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T136" s="4"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K137"/>
+      <c r="M137" s="1"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K138"/>
+      <c r="M138" s="1"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K139"/>
+      <c r="M139" s="1"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>9</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K140"/>
+      <c r="M140" s="1"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T140" s="4"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>9</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141"/>
+      <c r="M141" s="1"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T141" s="4"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>9</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K142"/>
+      <c r="M142" s="1"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T142" s="4"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>9</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143"/>
+      <c r="M143" s="1"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T143" s="4"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>9</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K144"/>
+      <c r="M144" s="1"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>9</v>
+      </c>
+      <c r="B145" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145"/>
+      <c r="M145" s="1"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T145" s="4"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K146"/>
+      <c r="M146" s="1"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T146" s="4"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>9</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K147"/>
+      <c r="M147" s="1"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T147" s="4"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>9</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K148"/>
+      <c r="M148" s="1"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>9</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149"/>
+      <c r="M149" s="1"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T149" s="4"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>9</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K150"/>
+      <c r="M150" s="1"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>9</v>
+      </c>
+      <c r="B151" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K151"/>
+      <c r="M151" s="1"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>9</v>
+      </c>
+      <c r="B152" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K152"/>
+      <c r="M152" s="1"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="1">
+        <v>33625</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153"/>
+      <c r="M153" s="1"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="2">
+        <v>44060</v>
+      </c>
+      <c r="T153" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U100">
